--- a/contratos/contratos-3-2020.xlsx
+++ b/contratos/contratos-3-2020.xlsx
@@ -835,7 +835,7 @@
     <t>SCEVOLA MAURICIO OSVALDO</t>
   </si>
   <si>
-    <t>URUMAT SOCIEDAD SIMPLE DE BONASEGLA CATALINA, BONASEGLA LUCIANA Y BONASEGLA SILVIO.</t>
+    <t>URUMAT SOCIEDAD SIMPLE DE BONASEGLA CATALINA. BONASEGLA LUCIANA Y BONASEGLA SILVIO</t>
   </si>
   <si>
     <t>VALDUNCIEL RODOLFO RENE</t>
@@ -1027,7 +1027,7 @@
     <t>RADIO Y TELEVISION ARGENTINA S.E.</t>
   </si>
   <si>
-    <t>RICCOTTI, MARIANA EDITH</t>
+    <t>RICCOTTI. MARIANA EDITH</t>
   </si>
   <si>
     <t>S.A ENTRE RIOS</t>
@@ -1057,7 +1057,7 @@
     <t>REYMUNDO EDUARDO JORGE</t>
   </si>
   <si>
-    <t>SCHAB DARIO, PEROTTI XAVIER, BENINCA MATIAS S.H.</t>
+    <t>SCHAB DARIO. PEROTTI XAVIER. BENINCA MATIAS SH</t>
   </si>
   <si>
     <t>GABIOUD HUGO ALBERTO Y EDUARDO RAUL S.H.</t>
@@ -1549,604 +1549,604 @@
     <t>90</t>
   </si>
   <si>
-    <t>6.900,00</t>
-  </si>
-  <si>
-    <t>140.000,00</t>
-  </si>
-  <si>
-    <t>11.100,00</t>
-  </si>
-  <si>
-    <t>113.171,00</t>
-  </si>
-  <si>
-    <t>300.960,00</t>
-  </si>
-  <si>
-    <t>8.692,08</t>
-  </si>
-  <si>
-    <t>10.819,00</t>
-  </si>
-  <si>
-    <t>19.500,00</t>
-  </si>
-  <si>
-    <t>19.496,00</t>
-  </si>
-  <si>
-    <t>780.000,00</t>
-  </si>
-  <si>
-    <t>755.000,00</t>
-  </si>
-  <si>
-    <t>1.941,10</t>
-  </si>
-  <si>
-    <t>425,00</t>
-  </si>
-  <si>
-    <t>1.089,00</t>
-  </si>
-  <si>
-    <t>19.370,00</t>
-  </si>
-  <si>
-    <t>900,00</t>
-  </si>
-  <si>
-    <t>9.500,00</t>
-  </si>
-  <si>
-    <t>1.947.488,93</t>
-  </si>
-  <si>
-    <t>32.920,00</t>
-  </si>
-  <si>
-    <t>135,68</t>
-  </si>
-  <si>
-    <t>69.600,00</t>
-  </si>
-  <si>
-    <t>1.358.590,80</t>
-  </si>
-  <si>
-    <t>38.472,00</t>
-  </si>
-  <si>
-    <t>6.646,50</t>
-  </si>
-  <si>
-    <t>720,00</t>
-  </si>
-  <si>
-    <t>18.300,00</t>
-  </si>
-  <si>
-    <t>68.800,00</t>
-  </si>
-  <si>
-    <t>24.748,58</t>
-  </si>
-  <si>
-    <t>164.205,68</t>
-  </si>
-  <si>
-    <t>17.141,00</t>
-  </si>
-  <si>
-    <t>3.000,00</t>
-  </si>
-  <si>
-    <t>55.200,00</t>
-  </si>
-  <si>
-    <t>88.343,57</t>
-  </si>
-  <si>
-    <t>65,12</t>
-  </si>
-  <si>
-    <t>19.060,00</t>
-  </si>
-  <si>
-    <t>8.640,00</t>
-  </si>
-  <si>
-    <t>26.100,00</t>
-  </si>
-  <si>
-    <t>19.965,00</t>
-  </si>
-  <si>
-    <t>1.600,00</t>
-  </si>
-  <si>
-    <t>21.715,00</t>
-  </si>
-  <si>
-    <t>3.200,00</t>
-  </si>
-  <si>
-    <t>5.900,00</t>
-  </si>
-  <si>
-    <t>5.319,90</t>
-  </si>
-  <si>
-    <t>6.804,00</t>
-  </si>
-  <si>
-    <t>348,90</t>
-  </si>
-  <si>
-    <t>2.409.322,47</t>
-  </si>
-  <si>
-    <t>52.701,21</t>
-  </si>
-  <si>
-    <t>23.931,36</t>
-  </si>
-  <si>
-    <t>288,00</t>
-  </si>
-  <si>
-    <t>3.663,49</t>
-  </si>
-  <si>
-    <t>115.542,65</t>
-  </si>
-  <si>
-    <t>8.800,00</t>
-  </si>
-  <si>
-    <t>21.033,01</t>
-  </si>
-  <si>
-    <t>274,95</t>
-  </si>
-  <si>
-    <t>13.787,70</t>
-  </si>
-  <si>
-    <t>17.461,20</t>
-  </si>
-  <si>
-    <t>31.837,50</t>
-  </si>
-  <si>
-    <t>47.600,00</t>
-  </si>
-  <si>
-    <t>18.298,68</t>
-  </si>
-  <si>
-    <t>929.326,50</t>
-  </si>
-  <si>
-    <t>2.783,00</t>
-  </si>
-  <si>
-    <t>196.047,00</t>
-  </si>
-  <si>
-    <t>11.048,00</t>
-  </si>
-  <si>
-    <t>6.550,00</t>
-  </si>
-  <si>
-    <t>16.099,00</t>
-  </si>
-  <si>
-    <t>18.000,00</t>
-  </si>
-  <si>
-    <t>62.700,00</t>
-  </si>
-  <si>
-    <t>25.200,00</t>
-  </si>
-  <si>
-    <t>42.000,00</t>
-  </si>
-  <si>
-    <t>19.069,38</t>
-  </si>
-  <si>
-    <t>2.621,60</t>
-  </si>
-  <si>
-    <t>7.774,10</t>
-  </si>
-  <si>
-    <t>54.946,20</t>
-  </si>
-  <si>
-    <t>11.300,00</t>
-  </si>
-  <si>
-    <t>1.650,00</t>
-  </si>
-  <si>
-    <t>11.000,00</t>
-  </si>
-  <si>
-    <t>1.105,00</t>
-  </si>
-  <si>
-    <t>52.250,00</t>
-  </si>
-  <si>
-    <t>13.104,00</t>
-  </si>
-  <si>
-    <t>19.650,00</t>
-  </si>
-  <si>
-    <t>5.400,00</t>
-  </si>
-  <si>
-    <t>94.150,00</t>
-  </si>
-  <si>
-    <t>10.210,00</t>
-  </si>
-  <si>
-    <t>5.800,00</t>
-  </si>
-  <si>
-    <t>13.280,00</t>
-  </si>
-  <si>
-    <t>37.435,62</t>
-  </si>
-  <si>
-    <t>2.323,92</t>
-  </si>
-  <si>
-    <t>48.000,00</t>
-  </si>
-  <si>
-    <t>17.645,00</t>
-  </si>
-  <si>
-    <t>24.450,00</t>
-  </si>
-  <si>
-    <t>3.390,00</t>
-  </si>
-  <si>
-    <t>6.530,00</t>
-  </si>
-  <si>
-    <t>43.584,82</t>
-  </si>
-  <si>
-    <t>102,96</t>
-  </si>
-  <si>
-    <t>27.191,50</t>
-  </si>
-  <si>
-    <t>21.700,00</t>
-  </si>
-  <si>
-    <t>10.200,00</t>
-  </si>
-  <si>
-    <t>936,82</t>
-  </si>
-  <si>
-    <t>37.600,00</t>
-  </si>
-  <si>
-    <t>18.190,00</t>
-  </si>
-  <si>
-    <t>18.900,00</t>
-  </si>
-  <si>
-    <t>6.334,00</t>
-  </si>
-  <si>
-    <t>236.138,80</t>
-  </si>
-  <si>
-    <t>119,00</t>
-  </si>
-  <si>
-    <t>7.180,00</t>
-  </si>
-  <si>
-    <t>1.519,10</t>
-  </si>
-  <si>
-    <t>25.791,00</t>
-  </si>
-  <si>
-    <t>1.372,80</t>
-  </si>
-  <si>
-    <t>17.850,00</t>
-  </si>
-  <si>
-    <t>6.107,25</t>
-  </si>
-  <si>
-    <t>17.349,50</t>
-  </si>
-  <si>
-    <t>137.700,00</t>
-  </si>
-  <si>
-    <t>774,00</t>
-  </si>
-  <si>
-    <t>220.000,00</t>
-  </si>
-  <si>
-    <t>24.000,00</t>
-  </si>
-  <si>
-    <t>22.000,00</t>
-  </si>
-  <si>
-    <t>8.900,00</t>
-  </si>
-  <si>
-    <t>6.800,00</t>
-  </si>
-  <si>
-    <t>18.800,00</t>
-  </si>
-  <si>
-    <t>25.000,00</t>
-  </si>
-  <si>
-    <t>6.000,00</t>
-  </si>
-  <si>
-    <t>490.716,90</t>
-  </si>
-  <si>
-    <t>38.000,00</t>
-  </si>
-  <si>
-    <t>8.832,46</t>
-  </si>
-  <si>
-    <t>22.740,00</t>
-  </si>
-  <si>
-    <t>2.090,00</t>
-  </si>
-  <si>
-    <t>2.010,00</t>
-  </si>
-  <si>
-    <t>4.900,00</t>
-  </si>
-  <si>
-    <t>35.000,00</t>
-  </si>
-  <si>
-    <t>12.000,00</t>
-  </si>
-  <si>
-    <t>11.500,00</t>
-  </si>
-  <si>
-    <t>7.000,00</t>
-  </si>
-  <si>
-    <t>116.110,00</t>
-  </si>
-  <si>
-    <t>10.000,00</t>
-  </si>
-  <si>
-    <t>9.000,00</t>
-  </si>
-  <si>
-    <t>6.500,00</t>
-  </si>
-  <si>
-    <t>13.000,00</t>
-  </si>
-  <si>
-    <t>69.545,00</t>
-  </si>
-  <si>
-    <t>27.225,00</t>
-  </si>
-  <si>
-    <t>20.000,00</t>
-  </si>
-  <si>
-    <t>24.300,00</t>
-  </si>
-  <si>
-    <t>41.299,72</t>
-  </si>
-  <si>
-    <t>19.900,00</t>
-  </si>
-  <si>
-    <t>23.800,00</t>
-  </si>
-  <si>
-    <t>18.780,00</t>
-  </si>
-  <si>
-    <t>38.741,00</t>
-  </si>
-  <si>
-    <t>2.020,61</t>
-  </si>
-  <si>
-    <t>50.960,00</t>
-  </si>
-  <si>
-    <t>7.100,00</t>
-  </si>
-  <si>
-    <t>61,46</t>
-  </si>
-  <si>
-    <t>257,00</t>
-  </si>
-  <si>
-    <t>10.995,42</t>
-  </si>
-  <si>
-    <t>8.711,20</t>
-  </si>
-  <si>
-    <t>5.370,00</t>
-  </si>
-  <si>
-    <t>7.787,47</t>
-  </si>
-  <si>
-    <t>29.460,00</t>
-  </si>
-  <si>
-    <t>3.240,50</t>
-  </si>
-  <si>
-    <t>1.141,44</t>
-  </si>
-  <si>
-    <t>89.600,00</t>
-  </si>
-  <si>
-    <t>65.216,00</t>
-  </si>
-  <si>
-    <t>19.950,00</t>
-  </si>
-  <si>
-    <t>85.986,44</t>
-  </si>
-  <si>
-    <t>12.864,78</t>
-  </si>
-  <si>
-    <t>80.000,00</t>
-  </si>
-  <si>
-    <t>40.000,00</t>
-  </si>
-  <si>
-    <t>55.000,00</t>
-  </si>
-  <si>
-    <t>7.763.361,33</t>
-  </si>
-  <si>
-    <t>4.850,00</t>
-  </si>
-  <si>
-    <t>98.053,50</t>
-  </si>
-  <si>
-    <t>3.482.899,89</t>
-  </si>
-  <si>
-    <t>2.669.802,61</t>
-  </si>
-  <si>
-    <t>298.100,00</t>
-  </si>
-  <si>
-    <t>313.040,00</t>
-  </si>
-  <si>
-    <t>314.900,00</t>
-  </si>
-  <si>
-    <t>311.540,00</t>
-  </si>
-  <si>
-    <t>566.600,00</t>
-  </si>
-  <si>
-    <t>821.456,80</t>
-  </si>
-  <si>
-    <t>1.017.000,00</t>
-  </si>
-  <si>
-    <t>424.240,00</t>
-  </si>
-  <si>
-    <t>596.200,00</t>
-  </si>
-  <si>
-    <t>522.060,00</t>
-  </si>
-  <si>
-    <t>601.880,00</t>
-  </si>
-  <si>
-    <t>871.220,00</t>
-  </si>
-  <si>
-    <t>862.740,00</t>
-  </si>
-  <si>
-    <t>609.640,00</t>
-  </si>
-  <si>
-    <t>302.850,00</t>
-  </si>
-  <si>
-    <t>931.230,62</t>
-  </si>
-  <si>
-    <t>717.997,90</t>
-  </si>
-  <si>
-    <t>34.134,77</t>
-  </si>
-  <si>
-    <t>700,00</t>
-  </si>
-  <si>
-    <t>91.000,00</t>
-  </si>
-  <si>
-    <t>30.000,00</t>
-  </si>
-  <si>
-    <t>7.682,31</t>
-  </si>
-  <si>
-    <t>16.000,00</t>
-  </si>
-  <si>
-    <t>500.000,00</t>
-  </si>
-  <si>
-    <t>13.300,00</t>
-  </si>
-  <si>
-    <t>96.800,00</t>
-  </si>
-  <si>
-    <t>945.000,00</t>
-  </si>
-  <si>
-    <t>2.962.218,00</t>
-  </si>
-  <si>
-    <t>11.801,00</t>
+    <t>6900.00</t>
+  </si>
+  <si>
+    <t>140000.00</t>
+  </si>
+  <si>
+    <t>11100.00</t>
+  </si>
+  <si>
+    <t>113171.00</t>
+  </si>
+  <si>
+    <t>300960.00</t>
+  </si>
+  <si>
+    <t>8692.08</t>
+  </si>
+  <si>
+    <t>10819.00</t>
+  </si>
+  <si>
+    <t>19500.00</t>
+  </si>
+  <si>
+    <t>19496.00</t>
+  </si>
+  <si>
+    <t>780000.00</t>
+  </si>
+  <si>
+    <t>755000.00</t>
+  </si>
+  <si>
+    <t>1941.10</t>
+  </si>
+  <si>
+    <t>425.00</t>
+  </si>
+  <si>
+    <t>1089.00</t>
+  </si>
+  <si>
+    <t>19370.00</t>
+  </si>
+  <si>
+    <t>900.00</t>
+  </si>
+  <si>
+    <t>9500.00</t>
+  </si>
+  <si>
+    <t>1947488.93</t>
+  </si>
+  <si>
+    <t>32920.00</t>
+  </si>
+  <si>
+    <t>135.68</t>
+  </si>
+  <si>
+    <t>69600.00</t>
+  </si>
+  <si>
+    <t>1358590.80</t>
+  </si>
+  <si>
+    <t>38472.00</t>
+  </si>
+  <si>
+    <t>6646.50</t>
+  </si>
+  <si>
+    <t>720.00</t>
+  </si>
+  <si>
+    <t>18300.00</t>
+  </si>
+  <si>
+    <t>68800.00</t>
+  </si>
+  <si>
+    <t>24748.58</t>
+  </si>
+  <si>
+    <t>164205.68</t>
+  </si>
+  <si>
+    <t>17141.00</t>
+  </si>
+  <si>
+    <t>3000.00</t>
+  </si>
+  <si>
+    <t>55200.00</t>
+  </si>
+  <si>
+    <t>88343.57</t>
+  </si>
+  <si>
+    <t>65.12</t>
+  </si>
+  <si>
+    <t>19060.00</t>
+  </si>
+  <si>
+    <t>8640.00</t>
+  </si>
+  <si>
+    <t>26100.00</t>
+  </si>
+  <si>
+    <t>19965.00</t>
+  </si>
+  <si>
+    <t>1600.00</t>
+  </si>
+  <si>
+    <t>21715.00</t>
+  </si>
+  <si>
+    <t>3200.00</t>
+  </si>
+  <si>
+    <t>5900.00</t>
+  </si>
+  <si>
+    <t>5319.90</t>
+  </si>
+  <si>
+    <t>6804.00</t>
+  </si>
+  <si>
+    <t>348.90</t>
+  </si>
+  <si>
+    <t>2409322.47</t>
+  </si>
+  <si>
+    <t>52701.21</t>
+  </si>
+  <si>
+    <t>23931.36</t>
+  </si>
+  <si>
+    <t>288.00</t>
+  </si>
+  <si>
+    <t>3663.49</t>
+  </si>
+  <si>
+    <t>115542.65</t>
+  </si>
+  <si>
+    <t>8800.00</t>
+  </si>
+  <si>
+    <t>21033.01</t>
+  </si>
+  <si>
+    <t>274.95</t>
+  </si>
+  <si>
+    <t>13787.70</t>
+  </si>
+  <si>
+    <t>17461.20</t>
+  </si>
+  <si>
+    <t>31837.50</t>
+  </si>
+  <si>
+    <t>47600.00</t>
+  </si>
+  <si>
+    <t>18298.68</t>
+  </si>
+  <si>
+    <t>929326.50</t>
+  </si>
+  <si>
+    <t>2783.00</t>
+  </si>
+  <si>
+    <t>196047.00</t>
+  </si>
+  <si>
+    <t>11048.00</t>
+  </si>
+  <si>
+    <t>6550.00</t>
+  </si>
+  <si>
+    <t>16099.00</t>
+  </si>
+  <si>
+    <t>18000.00</t>
+  </si>
+  <si>
+    <t>62700.00</t>
+  </si>
+  <si>
+    <t>25200.00</t>
+  </si>
+  <si>
+    <t>42000.00</t>
+  </si>
+  <si>
+    <t>19069.38</t>
+  </si>
+  <si>
+    <t>2621.60</t>
+  </si>
+  <si>
+    <t>7774.10</t>
+  </si>
+  <si>
+    <t>54946.20</t>
+  </si>
+  <si>
+    <t>11300.00</t>
+  </si>
+  <si>
+    <t>1650.00</t>
+  </si>
+  <si>
+    <t>11000.00</t>
+  </si>
+  <si>
+    <t>1105.00</t>
+  </si>
+  <si>
+    <t>52250.00</t>
+  </si>
+  <si>
+    <t>13104.00</t>
+  </si>
+  <si>
+    <t>19650.00</t>
+  </si>
+  <si>
+    <t>5400.00</t>
+  </si>
+  <si>
+    <t>94150.00</t>
+  </si>
+  <si>
+    <t>10210.00</t>
+  </si>
+  <si>
+    <t>5800.00</t>
+  </si>
+  <si>
+    <t>13280.00</t>
+  </si>
+  <si>
+    <t>37435.62</t>
+  </si>
+  <si>
+    <t>2323.92</t>
+  </si>
+  <si>
+    <t>48000.00</t>
+  </si>
+  <si>
+    <t>17645.00</t>
+  </si>
+  <si>
+    <t>24450.00</t>
+  </si>
+  <si>
+    <t>3390.00</t>
+  </si>
+  <si>
+    <t>6530.00</t>
+  </si>
+  <si>
+    <t>43584.82</t>
+  </si>
+  <si>
+    <t>102.96</t>
+  </si>
+  <si>
+    <t>27191.50</t>
+  </si>
+  <si>
+    <t>21700.00</t>
+  </si>
+  <si>
+    <t>10200.00</t>
+  </si>
+  <si>
+    <t>936.82</t>
+  </si>
+  <si>
+    <t>37600.00</t>
+  </si>
+  <si>
+    <t>18190.00</t>
+  </si>
+  <si>
+    <t>18900.00</t>
+  </si>
+  <si>
+    <t>6334.00</t>
+  </si>
+  <si>
+    <t>236138.80</t>
+  </si>
+  <si>
+    <t>119.00</t>
+  </si>
+  <si>
+    <t>7180.00</t>
+  </si>
+  <si>
+    <t>1519.10</t>
+  </si>
+  <si>
+    <t>25791.00</t>
+  </si>
+  <si>
+    <t>1372.80</t>
+  </si>
+  <si>
+    <t>17850.00</t>
+  </si>
+  <si>
+    <t>6107.25</t>
+  </si>
+  <si>
+    <t>17349.50</t>
+  </si>
+  <si>
+    <t>137700.00</t>
+  </si>
+  <si>
+    <t>774.00</t>
+  </si>
+  <si>
+    <t>220000.00</t>
+  </si>
+  <si>
+    <t>24000.00</t>
+  </si>
+  <si>
+    <t>22000.00</t>
+  </si>
+  <si>
+    <t>8900.00</t>
+  </si>
+  <si>
+    <t>6800.00</t>
+  </si>
+  <si>
+    <t>18800.00</t>
+  </si>
+  <si>
+    <t>25000.00</t>
+  </si>
+  <si>
+    <t>6000.00</t>
+  </si>
+  <si>
+    <t>490716.90</t>
+  </si>
+  <si>
+    <t>38000.00</t>
+  </si>
+  <si>
+    <t>8832.46</t>
+  </si>
+  <si>
+    <t>22740.00</t>
+  </si>
+  <si>
+    <t>2090.00</t>
+  </si>
+  <si>
+    <t>2010.00</t>
+  </si>
+  <si>
+    <t>4900.00</t>
+  </si>
+  <si>
+    <t>35000.00</t>
+  </si>
+  <si>
+    <t>12000.00</t>
+  </si>
+  <si>
+    <t>11500.00</t>
+  </si>
+  <si>
+    <t>7000.00</t>
+  </si>
+  <si>
+    <t>116110.00</t>
+  </si>
+  <si>
+    <t>10000.00</t>
+  </si>
+  <si>
+    <t>9000.00</t>
+  </si>
+  <si>
+    <t>6500.00</t>
+  </si>
+  <si>
+    <t>13000.00</t>
+  </si>
+  <si>
+    <t>69545.00</t>
+  </si>
+  <si>
+    <t>27225.00</t>
+  </si>
+  <si>
+    <t>20000.00</t>
+  </si>
+  <si>
+    <t>24300.00</t>
+  </si>
+  <si>
+    <t>41299.72</t>
+  </si>
+  <si>
+    <t>19900.00</t>
+  </si>
+  <si>
+    <t>23800.00</t>
+  </si>
+  <si>
+    <t>18780.00</t>
+  </si>
+  <si>
+    <t>38741.00</t>
+  </si>
+  <si>
+    <t>2020.61</t>
+  </si>
+  <si>
+    <t>50960.00</t>
+  </si>
+  <si>
+    <t>7100.00</t>
+  </si>
+  <si>
+    <t>61.46</t>
+  </si>
+  <si>
+    <t>257.00</t>
+  </si>
+  <si>
+    <t>10995.42</t>
+  </si>
+  <si>
+    <t>8711.20</t>
+  </si>
+  <si>
+    <t>5370.00</t>
+  </si>
+  <si>
+    <t>7787.47</t>
+  </si>
+  <si>
+    <t>29460.00</t>
+  </si>
+  <si>
+    <t>3240.50</t>
+  </si>
+  <si>
+    <t>1141.44</t>
+  </si>
+  <si>
+    <t>89600.00</t>
+  </si>
+  <si>
+    <t>65216.00</t>
+  </si>
+  <si>
+    <t>19950.00</t>
+  </si>
+  <si>
+    <t>85986.44</t>
+  </si>
+  <si>
+    <t>12864.78</t>
+  </si>
+  <si>
+    <t>80000.00</t>
+  </si>
+  <si>
+    <t>40000.00</t>
+  </si>
+  <si>
+    <t>55000.00</t>
+  </si>
+  <si>
+    <t>7763361.33</t>
+  </si>
+  <si>
+    <t>4850.00</t>
+  </si>
+  <si>
+    <t>98053.50</t>
+  </si>
+  <si>
+    <t>3482899.89</t>
+  </si>
+  <si>
+    <t>2669802.61</t>
+  </si>
+  <si>
+    <t>298100.00</t>
+  </si>
+  <si>
+    <t>313040.00</t>
+  </si>
+  <si>
+    <t>314900.00</t>
+  </si>
+  <si>
+    <t>311540.00</t>
+  </si>
+  <si>
+    <t>566600.00</t>
+  </si>
+  <si>
+    <t>821456.80</t>
+  </si>
+  <si>
+    <t>1017000.00</t>
+  </si>
+  <si>
+    <t>424240.00</t>
+  </si>
+  <si>
+    <t>596200.00</t>
+  </si>
+  <si>
+    <t>522060.00</t>
+  </si>
+  <si>
+    <t>601880.00</t>
+  </si>
+  <si>
+    <t>871220.00</t>
+  </si>
+  <si>
+    <t>862740.00</t>
+  </si>
+  <si>
+    <t>609640.00</t>
+  </si>
+  <si>
+    <t>302850.00</t>
+  </si>
+  <si>
+    <t>931230.62</t>
+  </si>
+  <si>
+    <t>717997.90</t>
+  </si>
+  <si>
+    <t>34134.77</t>
+  </si>
+  <si>
+    <t>700.00</t>
+  </si>
+  <si>
+    <t>91000.00</t>
+  </si>
+  <si>
+    <t>30000.00</t>
+  </si>
+  <si>
+    <t>7682.31</t>
+  </si>
+  <si>
+    <t>16000.00</t>
+  </si>
+  <si>
+    <t>500000.00</t>
+  </si>
+  <si>
+    <t>13300.00</t>
+  </si>
+  <si>
+    <t>96800.00</t>
+  </si>
+  <si>
+    <t>945000.00</t>
+  </si>
+  <si>
+    <t>2962218.00</t>
+  </si>
+  <si>
+    <t>11801.00</t>
   </si>
 </sst>
 </file>
